--- a/HT-4/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-4/Optica BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvill\Dropbox\uniandes\MATI\Notas de clase\Artefactos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA78AF5-0F78-4EF0-AF14-B287B963C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB26A8-8876-4CB1-8B70-E65BEB873839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="315" windowWidth="13080" windowHeight="14910" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Descripción</t>
   </si>
@@ -52,6 +52,189 @@
   </si>
   <si>
     <t>Modelo conceptual</t>
+  </si>
+  <si>
+    <t>Óptica</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>Optómetra</t>
+  </si>
+  <si>
+    <t>Una óptica puede o no tener muchos optómetras en su nómina.</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Una óptica tiene muchos pacientes, estos pueden ser prospectos o clientes</t>
+  </si>
+  <si>
+    <t>Una óptica tiene muchos clientes</t>
+  </si>
+  <si>
+    <t>ProveedorMonturas</t>
+  </si>
+  <si>
+    <t>ProveedorLentes</t>
+  </si>
+  <si>
+    <t>La óptica debe tener al menos un proveedor de monturas</t>
+  </si>
+  <si>
+    <t>La óptica debe tener al menos un proveedor de lentes</t>
+  </si>
+  <si>
+    <t>Óptometra</t>
+  </si>
+  <si>
+    <t>cédula</t>
+  </si>
+  <si>
+    <t>Fórmula</t>
+  </si>
+  <si>
+    <t>títulos</t>
+  </si>
+  <si>
+    <t>El optómetra debe dar cuenta de las fórmulas que receta</t>
+  </si>
+  <si>
+    <t>El optómetra tiene uno o varios títulos relacionados a su profesión, otorgados por distintas universidades</t>
+  </si>
+  <si>
+    <t>Un optómetra tiene muchos pacientes</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>La dirección donde se puede encontrar el paciente</t>
+  </si>
+  <si>
+    <t>Un paciente tiene una fórmula vigente asociada a su vista</t>
+  </si>
+  <si>
+    <t>infoIzq</t>
+  </si>
+  <si>
+    <t>infoDer</t>
+  </si>
+  <si>
+    <t>Información relacionada con el ojo izquierdo (enfermedades, aumento, punto focal)</t>
+  </si>
+  <si>
+    <t>Información relacionada con el ojo derecho (enfermedades, aumento, punto focal)</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Montura</t>
+  </si>
+  <si>
+    <t>Proveedor Monturas</t>
+  </si>
+  <si>
+    <t>Identificador de la empresa</t>
+  </si>
+  <si>
+    <t>Un proveedor de monturas fabrica o consigue una cantidad determinada de monturas para distribuir</t>
+  </si>
+  <si>
+    <t>Proveedor Lentes</t>
+  </si>
+  <si>
+    <t>Lente</t>
+  </si>
+  <si>
+    <t>Un proveedor de lentes fabrica o consigue una cantidad determinada de lentes para distribuir</t>
+  </si>
+  <si>
+    <t>precioCompra</t>
+  </si>
+  <si>
+    <t>precioVenta</t>
+  </si>
+  <si>
+    <t>Precio al cual la óptica compra la montura</t>
+  </si>
+  <si>
+    <t>Precio al cual la óptica vende la montura</t>
+  </si>
+  <si>
+    <t>Una montura tiene 2 lentes, así no sean los que se le entreguen al cliente</t>
+  </si>
+  <si>
+    <t>grosor</t>
+  </si>
+  <si>
+    <t>largo</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>curvatura</t>
+  </si>
+  <si>
+    <t>Concavo o convexo</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>métodoDePago</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>comprobante</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>númeroFactura</t>
+  </si>
+  <si>
+    <t>elementos</t>
+  </si>
+  <si>
+    <t>Cada cliente realiza un pago a la óptica</t>
+  </si>
+  <si>
+    <t>Un cliente puede comprar varias monturas</t>
+  </si>
+  <si>
+    <t>Un cliente puede comprar varios pares de lentes</t>
+  </si>
+  <si>
+    <t>Cada pago se realiza en efectivo o tarjeta</t>
+  </si>
+  <si>
+    <t>Cada pago tiene un monto asociado</t>
+  </si>
+  <si>
+    <t>El comprobante es el número que tiene el cliente, la óptica y el banco para saber que sí se realizó la transacción</t>
+  </si>
+  <si>
+    <t>Con el pago se genera una factura que se le da al cliente</t>
+  </si>
+  <si>
+    <t>La factura tiene los elementos que compró el cliente</t>
   </si>
 </sst>
 </file>
@@ -93,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,15 +299,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,6 +352,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,148 +676,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>